--- a/temp_brainstorming/OADEfinalOutput.xlsx
+++ b/temp_brainstorming/OADEfinalOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Desktop/Open Access and Digital Ethics/OADE Final Project/initinere/temp_brainstorming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02354BB8-5F72-F040-8D2D-2399B98CD92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25918C8-9174-8B45-9520-10ECDDFF798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,19 @@
     <sheet name="2019" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2045,6 +2058,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2049527167"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2103,6 +2117,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2049934319"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -2159,6 +2174,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2050526223"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3131,10 +3147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3526736E-E966-B54E-A410-A10B3FA22C58}">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P18" zoomScale="68" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="AS50" sqref="AS50"/>
+    <sheetView topLeftCell="A27" zoomScale="68" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6385,6 +6401,36 @@
         <v>0.89959594419456002</v>
       </c>
     </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <f>AVERAGE(C2:C79)</f>
+        <v>6090890.384615385</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81:I81" si="0">AVERAGE(D2:D79)</f>
+        <v>2076.541666666667</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="0"/>
+        <v>1896.6269230769233</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>20336.346153846152</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="0"/>
+        <v>916.12820512820508</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="0"/>
+        <v>5.2889794745443188</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="0"/>
+        <v>318.75954624235686</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6393,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506EB59E-2EF9-424A-8918-28E8C6920D80}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8721,6 +8767,36 @@
         <v>805.15145100454004</v>
       </c>
     </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <f>AVERAGE(C2:C80)</f>
+        <v>6696362.1265822789</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82:I82" si="0">AVERAGE(D2:D80)</f>
+        <v>2154.3917721518987</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="0"/>
+        <v>1946.785949367089</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="0"/>
+        <v>20130.075949367088</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="0"/>
+        <v>962.20253164556959</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="0"/>
+        <v>5.5642587743450607</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="0"/>
+        <v>344.30583791328706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8728,10 +8804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11112,6 +11188,36 @@
       </c>
       <c r="I82">
         <v>539.92365471743005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <f>AVERAGE(C2:C82)</f>
+        <v>7376933.333333333</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ref="D84:I84" si="0">AVERAGE(D2:D82)</f>
+        <v>2259.7834567901232</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>1924.3839506172833</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>19808.481481481482</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="0"/>
+        <v>1020.2345679012345</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="0"/>
+        <v>5.6733345068168868</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="0"/>
+        <v>372.8864396212158</v>
       </c>
     </row>
   </sheetData>
@@ -11123,10 +11229,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50368C9A-45E0-2343-8816-C365B24C9555}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13190,6 +13296,12 @@
         <v>1067.2225127731001</v>
       </c>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <f ca="1">AVERAGE(C2:C82)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
